--- a/documents/schedule-WBS.xlsx
+++ b/documents/schedule-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://matsusaka-my.sharepoint.com/personal/100973_matsusaka_co_jp/Documents/大学講義/サンプルソース/mu-psd00/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\mu-psd-03\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{7FA29082-0DE7-4429-890C-F70E2EF5F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925BFFEA-5795-48DF-9B06-684C92DDB52B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60701F7-ACBF-4496-81DE-94E582025D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>プロジェクトスケジュール</t>
     <phoneticPr fontId="1"/>
@@ -153,26 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要件洗い出し</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユースケース／フロー作成</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メイン画面</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -463,6 +443,38 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース／フロー作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海谷</t>
+    <rPh sb="0" eb="2">
+      <t>カイタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件洗い出し・画面設計書</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッケイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -724,9 +736,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +750,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,96 +1070,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B027D8-570E-4AD0-B3A3-6E87E9157CAD}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="4.125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="5.08203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="4.08203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18" t="s">
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18" t="s">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
+      <c r="AF4" s="23"/>
+    </row>
+    <row r="5" spans="1:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1169,7 @@
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1180,67 +1192,67 @@
         <v>6</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1278,17 +1290,17 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5">
         <v>45538</v>
@@ -1304,18 +1316,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="K7" s="5">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="L7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1335,17 +1347,17 @@
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5">
         <v>45538</v>
@@ -1359,17 +1371,17 @@
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="5">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="K8" s="5">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="L8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
@@ -1390,7 +1402,7 @@
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1428,13 +1440,13 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
@@ -1466,17 +1478,17 @@
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5">
         <v>45539</v>
@@ -1503,7 +1515,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1523,17 +1535,17 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5">
         <v>45539</v>
@@ -1562,7 +1574,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -1580,13 +1592,13 @@
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
@@ -1618,17 +1630,17 @@
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5">
         <v>45539</v>
@@ -1651,7 +1663,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -1671,12 +1683,12 @@
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -1709,13 +1721,13 @@
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
@@ -1747,17 +1759,17 @@
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="5">
         <v>45540</v>
@@ -1780,7 +1792,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
@@ -1796,17 +1808,17 @@
       <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="5">
         <v>45541</v>
@@ -1830,7 +1842,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -1845,17 +1857,17 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5">
         <v>45541</v>
@@ -1880,7 +1892,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -1894,13 +1906,13 @@
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
@@ -1932,17 +1944,17 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5">
         <v>45540</v>
@@ -1965,7 +1977,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -1981,17 +1993,17 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="5">
         <v>45541</v>
@@ -2015,7 +2027,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -2030,17 +2042,17 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="5">
         <v>45541</v>
@@ -2065,7 +2077,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -2079,12 +2091,12 @@
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
@@ -2117,13 +2129,13 @@
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>13</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
@@ -2155,17 +2167,17 @@
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>14</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" s="5">
         <v>45540</v>
@@ -2188,7 +2200,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
@@ -2204,17 +2216,17 @@
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>15</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5">
         <v>45541</v>
@@ -2238,7 +2250,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
@@ -2253,17 +2265,17 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>16</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5">
         <v>45541</v>
@@ -2288,7 +2300,7 @@
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -2302,12 +2314,12 @@
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -2340,17 +2352,17 @@
       <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5">
         <v>45542</v>
@@ -2376,7 +2388,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
@@ -2389,17 +2401,17 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31" s="5">
         <v>45542</v>
@@ -2426,7 +2438,7 @@
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
@@ -2438,12 +2450,12 @@
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
@@ -2476,17 +2488,17 @@
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5">
         <v>45547</v>
@@ -2514,7 +2526,7 @@
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
@@ -2525,17 +2537,17 @@
       <c r="AE33" s="15"/>
       <c r="AF33" s="15"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" s="5">
         <v>45552</v>
@@ -2564,7 +2576,7 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
@@ -2574,7 +2586,7 @@
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2612,12 +2624,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
@@ -2628,6 +2634,12 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,6 +2648,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C0301195AD99F949B67EFEF6F63F1B41" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2458c80059c72884f5a18283ad54fd4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0200489fc2178a2768dc827bf92ddcc7">
     <xsd:element name="properties">
@@ -2749,12 +2767,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2765,6 +2777,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C529DE-ACDD-4DFF-8718-B7DAD051F3B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2780,21 +2807,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FF1017-7F48-4528-98C6-6EF5CD6FDC9D}">
   <ds:schemaRefs>

--- a/documents/schedule-WBS.xlsx
+++ b/documents/schedule-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\mu-psd-03\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60701F7-ACBF-4496-81DE-94E582025D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037741D-EFB9-494B-83DF-CA4F44DEB736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
   </bookViews>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユースケース／フロー作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近藤</t>
     <rPh sb="0" eb="2">
       <t>コンドウ</t>
@@ -476,6 +472,10 @@
     <rPh sb="9" eb="12">
       <t>セッケイショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロー作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,6 +736,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -750,9 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1083,83 +1083,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23" t="s">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23" t="s">
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23" t="s">
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="23"/>
+      <c r="AF4" s="18"/>
     </row>
     <row r="5" spans="1:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5">
         <v>45538</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -1353,11 +1353,11 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5">
         <v>45538</v>
@@ -2624,6 +2624,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
@@ -2634,12 +2640,6 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2648,12 +2648,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C0301195AD99F949B67EFEF6F63F1B41" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2458c80059c72884f5a18283ad54fd4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0200489fc2178a2768dc827bf92ddcc7">
     <xsd:element name="properties">
@@ -2767,6 +2761,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2777,21 +2777,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C529DE-ACDD-4DFF-8718-B7DAD051F3B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2807,6 +2792,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FF1017-7F48-4528-98C6-6EF5CD6FDC9D}">
   <ds:schemaRefs>

--- a/documents/schedule-WBS.xlsx
+++ b/documents/schedule-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\mu-psd-03\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037741D-EFB9-494B-83DF-CA4F44DEB736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F22AF1-1D57-4FFF-A837-49F16F24064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>プロジェクトスケジュール</t>
     <phoneticPr fontId="1"/>
@@ -153,13 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイン画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面設計書作成</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -396,20 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フロントエンド　開発＆単体テスト</t>
-    <rPh sb="8" eb="10">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バックエンド　開発＆単体テスト</t>
     <rPh sb="7" eb="9">
       <t>カイハツ</t>
@@ -427,16 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索API作成</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -461,21 +430,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件洗い出し・画面設計書</t>
+    <t>フロー作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件洗い出し・画面設計書基本</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
     <rPh sb="9" eb="12">
       <t>セッケイショ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フロー作成</t>
+    <rPh sb="12" eb="14">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート画面+検索画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報画面</t>
+    <rPh sb="0" eb="4">
+      <t>テンキヨホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセット作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒートマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート画面+検索画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報画面</t>
+    <rPh sb="0" eb="4">
+      <t>テンキヨホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド　開発&amp;単体テスト</t>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,9 +801,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B027D8-570E-4AD0-B3A3-6E87E9157CAD}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1083,83 +1148,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18" t="s">
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18" t="s">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF4" s="18"/>
+      <c r="AF4" s="23"/>
     </row>
     <row r="5" spans="1:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1234,7 @@
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1192,64 +1257,64 @@
         <v>6</v>
       </c>
       <c r="M5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="O5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="Q5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="S5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="U5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="W5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="Y5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="AA5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="AC5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="AE5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1296,11 +1361,11 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5">
         <v>45538</v>
@@ -1325,11 +1390,11 @@
         <v>1</v>
       </c>
       <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -1353,11 +1418,11 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5">
         <v>45538</v>
@@ -1380,11 +1445,11 @@
         <v>1</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -1446,7 +1511,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
@@ -1485,10 +1550,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5">
         <v>45539</v>
@@ -1504,22 +1569,22 @@
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>45532</v>
+        <v>45539</v>
       </c>
       <c r="K11" s="5">
-        <v>43691</v>
+        <v>45539</v>
       </c>
       <c r="L11" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="R11" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -1542,10 +1607,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5">
         <v>45539</v>
@@ -1561,22 +1626,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>45532</v>
+        <v>45539</v>
       </c>
       <c r="K12" s="5">
-        <v>43691</v>
+        <v>45539</v>
       </c>
       <c r="L12" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -1598,7 +1663,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
@@ -1637,10 +1702,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F14" s="5">
         <v>45539</v>
@@ -1653,21 +1718,25 @@
         <v>1</v>
       </c>
       <c r="I14" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>45532</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+        <v>45539</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45539</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="R14" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
@@ -1688,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -1727,7 +1796,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
@@ -1766,35 +1835,42 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F17" s="5">
         <v>45540</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:G19" si="2">F17+H17</f>
-        <v>45541</v>
+        <v>45542</v>
       </c>
       <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17">
         <v>1</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="5">
+        <v>45540</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45540</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -1809,30 +1885,19 @@
       <c r="AF17" s="15"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="5">
-        <v>45541</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="2"/>
-        <v>45542</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="1"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -1841,9 +1906,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -1858,31 +1921,36 @@
       <c r="AF18" s="15"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5">
+        <v>45540</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45542</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45540</v>
+      </c>
+      <c r="K19" s="5">
         <v>45541</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="2"/>
-        <v>45542</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -1890,10 +1958,10 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="T19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="15"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
@@ -1907,21 +1975,19 @@
       <c r="AF19" s="15"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="1"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1945,30 +2011,19 @@
       <c r="AF20" s="15"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="5">
-        <v>45540</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" ref="G21:G23" si="3">F21+H21</f>
-        <v>45541</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1976,9 +2031,7 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
@@ -1995,21 +2048,21 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F22" s="5">
         <v>45541</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G22:G23" si="2">F22+H22</f>
         <v>45542</v>
       </c>
       <c r="H22" s="1">
@@ -2027,7 +2080,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -2044,21 +2097,21 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5">
         <v>45541</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45542</v>
       </c>
       <c r="H23" s="1">
@@ -2077,7 +2130,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -2093,12 +2146,12 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2131,17 +2184,26 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5">
+        <v>45540</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:G27" si="3">F25+H25</f>
+        <v>45541</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2152,7 +2214,9 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
+      <c r="S25" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
@@ -2169,22 +2233,22 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F26" s="5">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:G28" si="4">F26+H26</f>
-        <v>45541</v>
+        <f t="shared" si="3"/>
+        <v>45542</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -2199,10 +2263,10 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -2218,21 +2282,21 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5">
         <v>45541</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45542</v>
       </c>
       <c r="H27" s="1">
@@ -2249,10 +2313,10 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
-      <c r="T27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
@@ -2267,26 +2331,17 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5">
-        <v>45541</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="4"/>
-        <v>45542</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="17"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2299,9 +2354,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
@@ -2316,12 +2369,12 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2354,22 +2407,22 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="5">
-        <v>45542</v>
+        <v>45540</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30:G31" si="5">F30+H30</f>
-        <v>45543</v>
+        <f t="shared" ref="G30:G32" si="4">F30+H30</f>
+        <v>45541</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -2384,12 +2437,12 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
+      <c r="S30" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -2403,22 +2456,22 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5">
+        <v>45541</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
         <v>45542</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="5"/>
-        <v>45543</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -2434,12 +2487,12 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="T31" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
@@ -2452,17 +2505,26 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5">
+        <v>45541</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="4"/>
+        <v>45542</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
       <c r="I32" s="17"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2475,7 +2537,9 @@
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
+      <c r="U32" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -2490,26 +2554,17 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="5">
-        <v>45547</v>
-      </c>
-      <c r="G33" s="5">
-        <f>F33+H33</f>
-        <v>45547.5</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="17"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2525,9 +2580,7 @@
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
-      <c r="X33" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
@@ -2539,25 +2592,25 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5">
-        <v>45552</v>
+        <v>45542</v>
       </c>
       <c r="G34" s="5">
-        <f>F34+H34</f>
-        <v>45552.5</v>
+        <f t="shared" ref="G34:G35" si="5">F34+H34</f>
+        <v>45543</v>
       </c>
       <c r="H34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="1"/>
@@ -2572,12 +2625,12 @@
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
+      <c r="V34" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
-      <c r="Y34" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -2588,15 +2641,26 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5">
+        <v>45542</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="5"/>
+        <v>45543</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
       <c r="I35" s="17"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2611,7 +2675,9 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
+      <c r="W35" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
@@ -2622,14 +2688,180 @@
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
     </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="5">
+        <v>45547</v>
+      </c>
+      <c r="G37" s="5">
+        <f>F37+H37</f>
+        <v>45547.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5">
+        <v>45552</v>
+      </c>
+      <c r="G38" s="5">
+        <f>F38+H38</f>
+        <v>45552.5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
@@ -2640,6 +2872,12 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2648,6 +2886,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C0301195AD99F949B67EFEF6F63F1B41" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2458c80059c72884f5a18283ad54fd4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0200489fc2178a2768dc827bf92ddcc7">
     <xsd:element name="properties">
@@ -2761,12 +3005,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2777,6 +3015,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C529DE-ACDD-4DFF-8718-B7DAD051F3B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2792,21 +3045,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FF1017-7F48-4528-98C6-6EF5CD6FDC9D}">
   <ds:schemaRefs>

--- a/documents/schedule-WBS.xlsx
+++ b/documents/schedule-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\mu-psd-03\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F22AF1-1D57-4FFF-A837-49F16F24064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCE6CC-0C16-42DE-9AD9-838A507C0BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>プロジェクトスケジュール</t>
     <phoneticPr fontId="1"/>
@@ -540,6 +540,13 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -801,6 +808,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -815,9 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B027D8-570E-4AD0-B3A3-6E87E9157CAD}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1148,83 +1155,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23" t="s">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23" t="s">
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23" t="s">
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="23"/>
+      <c r="AF4" s="18"/>
     </row>
     <row r="5" spans="1:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1241,7 @@
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
@@ -2047,31 +2054,34 @@
       <c r="AF21" s="15"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5">
         <v>45541</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:G23" si="2">F22+H22</f>
-        <v>45542</v>
+        <v>45546</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="I22" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45541</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
@@ -2079,9 +2089,7 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -2097,30 +2105,35 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F23" s="5">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="2"/>
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45544</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -2128,10 +2141,10 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15" t="s">
+      <c r="T23" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
@@ -2146,21 +2159,33 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5">
+        <v>45546</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45547</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="5">
+        <v>45546</v>
+      </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
@@ -2169,7 +2194,9 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
@@ -2184,26 +2211,17 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="5">
-        <v>45540</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" ref="G25:G27" si="3">F25+H25</f>
-        <v>45541</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="17"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2214,9 +2232,7 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
@@ -2233,28 +2249,31 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F26" s="5">
         <v>45541</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="3"/>
-        <v>45542</v>
+        <v>45546</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45541</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="15"/>
@@ -2263,10 +2282,10 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15" t="s">
+      <c r="S26" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -2282,28 +2301,31 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F27" s="5">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="3"/>
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="1"/>
+      <c r="I27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45544</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="15"/>
@@ -2313,10 +2335,10 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15" t="s">
+      <c r="T27" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
@@ -2331,19 +2353,29 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="5">
+        <v>45546</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45547</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="5">
+        <v>45546</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="15"/>
@@ -2354,7 +2386,9 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
@@ -2369,12 +2403,12 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2407,26 +2441,17 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5">
-        <v>45540</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" ref="G30:G32" si="4">F30+H30</f>
-        <v>45541</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="17"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2437,9 +2462,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
@@ -2456,22 +2479,21 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F31" s="5">
         <v>45541</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="4"/>
-        <v>45542</v>
+        <v>45546</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -2486,10 +2508,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15" t="s">
+      <c r="S31" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -2505,22 +2527,21 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F32" s="5">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="4"/>
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -2536,10 +2557,10 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15" t="s">
+      <c r="T32" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -2554,17 +2575,25 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5">
+        <v>45546</v>
+      </c>
+      <c r="G33" s="5">
+        <v>45547</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
       <c r="I33" s="17"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2577,7 +2606,9 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="U33" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
@@ -2592,26 +2623,17 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="5">
-        <v>45542</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" ref="G34:G35" si="5">F34+H34</f>
-        <v>45543</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="17"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2625,9 +2647,7 @@
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
@@ -2641,21 +2661,21 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5">
         <v>45542</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G35:G36" si="2">F35+H35</f>
         <v>45543</v>
       </c>
       <c r="H35" s="1">
@@ -2674,10 +2694,10 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15" t="s">
+      <c r="V35" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
@@ -2690,17 +2710,26 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="5">
+        <v>45542</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="2"/>
+        <v>45543</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
       <c r="I36" s="17"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2715,7 +2744,9 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
+      <c r="W36" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
@@ -2728,26 +2759,17 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="5">
-        <v>45547</v>
-      </c>
-      <c r="G37" s="5">
-        <f>F37+H37</f>
-        <v>45547.5</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="17"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2763,9 +2785,7 @@
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
-      <c r="X37" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
@@ -2777,22 +2797,22 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F38" s="5">
-        <v>45552</v>
+        <v>45547</v>
       </c>
       <c r="G38" s="5">
         <f>F38+H38</f>
-        <v>45552.5</v>
+        <v>45547.5</v>
       </c>
       <c r="H38" s="1">
         <v>0.5</v>
@@ -2812,10 +2832,10 @@
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15" t="s">
+      <c r="X38" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
@@ -2826,15 +2846,26 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="F39" s="5">
+        <v>45552</v>
+      </c>
+      <c r="G39" s="5">
+        <f>F39+H39</f>
+        <v>45552.5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="17"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2851,7 +2882,9 @@
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
+      <c r="Y39" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
@@ -2860,8 +2893,50 @@
       <c r="AE39" s="15"/>
       <c r="AF39" s="15"/>
     </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
@@ -2872,12 +2947,6 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2886,12 +2955,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C0301195AD99F949B67EFEF6F63F1B41" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2458c80059c72884f5a18283ad54fd4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0200489fc2178a2768dc827bf92ddcc7">
     <xsd:element name="properties">
@@ -3005,6 +3068,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3015,21 +3084,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C529DE-ACDD-4DFF-8718-B7DAD051F3B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3045,6 +3099,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F43B1BE-6401-4921-8F9C-7FB544A4E860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FF1017-7F48-4528-98C6-6EF5CD6FDC9D}">
   <ds:schemaRefs>
